--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abelm\Programacion\AyP2\4_AyP2_MOD2_TP1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DC2CE8-F246-405A-AF81-B1A4F6733788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85953300-40FF-4A91-BDFF-B756F2B6BE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>fc</t>
   </si>
   <si>
-    <t>PARED SIMPLE</t>
-  </si>
-  <si>
     <t>SHARP</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Ly [m]</t>
+  </si>
+  <si>
+    <t>CREMER</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PARED SIMPLE</c:v>
+                  <c:v>CREMER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="3" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="4" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="8" spans="2:33" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="9">
         <v>20</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="10" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="11" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="12" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
